--- a/Listas de precios/mayorista/ESCUADRA ANGULO DISMAY.xlsx
+++ b/Listas de precios/mayorista/ESCUADRA ANGULO DISMAY.xlsx
@@ -695,7 +695,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="16">
@@ -915,9 +915,9 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/Listas de precios/mayorista/ESCUADRA ANGULO DISMAY.xlsx
+++ b/Listas de precios/mayorista/ESCUADRA ANGULO DISMAY.xlsx
@@ -695,7 +695,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="16">
@@ -915,9 +915,9 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/Listas de precios/mayorista/ESCUADRA ANGULO DISMAY.xlsx
+++ b/Listas de precios/mayorista/ESCUADRA ANGULO DISMAY.xlsx
@@ -695,7 +695,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="16">
@@ -915,9 +915,9 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
